--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Michaelsen/Wilhelm_Michaelsen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Michaelsen/Wilhelm_Michaelsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Michaelsen (9 octobre 1860 à Hambourg-18 février 1937 à Hambourg) est l'un des pères de la biologie et de la systématique des vers de terre.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1885-1889
-1. 1885. Vorläufige Mittheilungen über Archienchytraeus möbii, sp. n. Zoologischer Anzeiger, Leipzig 8: 237-239.
+          <t>1885-1889</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1. 1885. Vorläufige Mittheilungen über Archienchytraeus möbii, sp. n. Zoologischer Anzeiger, Leipzig 8: 237-239.
 2. 1886. Über Enchytraeus moebii, Mich., und andere Enchytraeiden. Kiel: 1886.
 3. 1886. Über Chylusgefäss systeme bei Enchytraeiden. Archiv für Mikroskopische Anatomie, Bonn 28: 292-304, 21 pls.
 4. 1887. Enchytraeiden-Studien. Archiv für Mikroskopische Anatomie, Bonn 30: 366-378, 21 pl. (Translated in The Annals of Natural History, London (5), 20: 417-427).
@@ -522,9 +539,43 @@
 6. 1889. Die Gophyreen von Süd-Georgien nach der Ausbeute der Deutschen Station von 1882-1883. Jahrbuch der Hamburg 6: 70-84, 1 pl.
 7. 1889. Oligochaeten des Naturhistorischen Museums in Hamburg. I. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, Hamburg 6: 1-17, 1 pl.
 8. 1889. Oligochaeten des Naturhistorischen Museums in Hamburg. II. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, Hamburg 6: 59-69, 2 pls.
-9. 1889. Synopsis der Enchytraeiden. Abhandlungen der Gesellschaft, Hamburg 11: 1-60, 1 pl.
-1890-1894
-10. 1890. Die Lumbriciden Norddeutschlands. Jahrbuch der Hamburg 7: 1-19.
+9. 1889. Synopsis der Enchytraeiden. Abhandlungen der Gesellschaft, Hamburg 11: 1-60, 1 pl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1890-1894</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10. 1890. Die Lumbriciden Norddeutschlands. Jahrbuch der Hamburg 7: 1-19.
 11. 1890. Beschreibung der von Herrn Dr. Franz Stuhlmann im Mündungsgebiet des Sambesi gesammelten Terricolen. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 7: 21-50, 4 pls.
 12. 1890. Die Lumbriciden Mecklenburg's. Archiv des Vereins der Freunde der Naturgeschichte in Mecklenburg 44: 48-54.
 13. 1890. Oligochaeten des Naturhistorischen Museums in Hamburg. III. Jahrbuch der Hamburg 7: 51-62.
@@ -537,9 +588,43 @@
 20. 1892. Polychaeta von Ceylon. Jahrbuch der Hamburgischen Anatomischer 9(2): 91-113, 1 pl.
 21. 1894. Die Regenwurm-Fauna von Florida und Georgia. Zoologische Jahrbücher, Abteilung für Systematik, Jena 10:177-194.
 22. 1894. Lumbriciden. Semon's Zoologische Forschungsreisen in Australien und dem Malayischen Archipel. V. Systematik und Thiorgeographie. Denkschriften der Medizinisch-Naturwissenschaftlichen Gesellschaft zu Jena 8: 99-100.
-23. 1894. Zur Systematik Regenwürmer. Abhandlungen der Gesellschaft, Hamburg 1894.
-1895-1899
-24. 1895. Zur Kenntnis der Oligochaeten. Abhandlungen und Verhandlungen des Naturwissenschaftlichen Vereins, Hamburg 13: 37 pp., 1 pl.
+23. 1894. Zur Systematik Regenwürmer. Abhandlungen der Gesellschaft, Hamburg 1894.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1895-1899</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24. 1895. Zur Kenntnis der Oligochaeten. Abhandlungen und Verhandlungen des Naturwissenschaftlichen Vereins, Hamburg 13: 37 pp., 1 pl.
 25. 1895. Regenwürmer aus Deutsch Ost-Afrika. Die Tierwelt Ost-Afrika. IV. Wirbellose Tiere. Geographisches Verlagshndl. Reimer, Berlin 8: 1-48, 2 pls.
 26. 1896. Weilerer Beitrag zur Systematik der Regenwürmer. Abhandlungen der Gesellschaft, Hamburg 1896.
 27. 1896. Oligochaeten. Ergebn. Zool. Forschungsr. in den Molukken und in Borneo (Kükenthal). Abhandlungen hrsg. von der Senckenbergischen Naturforschenden Gesellschaft, Frankfurt a. Main 23: 193-243, 13 pls., 1 fig.
@@ -554,9 +639,43 @@
 36. 1899. Beitrage zur Kenntniss der Oligochäten. Zoologische Jahrbücher, Abteilung für Systematik, Jena 12: 105-144, 2 figs.
 37. 1899. Revision der Kinbergischen Oligochaeten-Typen. Ofversigt Akademiens Fšrhandlingar, Stockholm 56: 413-448, 3 figs.
 38. 1899. Terricolen von verschiedenen Gebieten der Erde. 2 Beiheft Jahrbuch der Hamburgischen Wissenschaftliche Anstalten, Hamburg 16: 1-122, 22 text-figs.
-39. 1899. Oligochäten von den Inseln des Pacific, nebst Erorterungen zur Systematik der Megascoleciden. Jahrbuch der Hamburgischen Wissenschaftliche Anstalten, Hamburg 16: 211-246. [Ergebnisse einer Reise nach dem Pacific. Schauinsland 1896-97.]
-1900-1904
-40. 1900. Terricolen (Nachtrag). Hamburg. Magalhaens Sammelreise, Lief. V-3, Hamburg, 28 pp.
+39. 1899. Oligochäten von den Inseln des Pacific, nebst Erorterungen zur Systematik der Megascoleciden. Jahrbuch der Hamburgischen Wissenschaftliche Anstalten, Hamburg 16: 211-246. [Ergebnisse einer Reise nach dem Pacific. Schauinsland 1896-97.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1900-1904</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>40. 1900. Terricolen (Nachtrag). Hamburg. Magalhaens Sammelreise, Lief. V-3, Hamburg, 28 pp.
 41. 1900. Die Lumbriciden-Fauna Nordamerikas. Abhandlungen der Gesellschaft, Hamburg 16: 22 pp.
 42. 1900. Die Lumbriciden-Fauna Eurasiens. Annuaire du Museum de St.-Petersburg 5: 213-225.
 43. 1900. Eine neue Eminoscolex - Art von Hoch - Sennaar. 2 Beiheft. Jahrbuch der Hamburgischen Wissenschaftliche Anstalten, Hamburg 17: 1-5.
@@ -579,9 +698,43 @@
 60. 1903. (Vortrag.) Die Fauna des Baikal-Sees. Verhandlungen des Vereins für Naturwissenschaftliche Unterhaltung zu Hamburg 10(3): 17-20.
 61. 1903. Oligochäten von Paradeniya auf Ceylon, ein Beitrag zur Kenntnis des Einflusses botanischer Gärten auf die Einschleppung peregriner Thiere. SB Böhmisch. Ges. Wiss. 55: 16 pp., 16 figs.
 62. 1904. Revision der composition Styeliden oder Polyzoiner. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 21: 1-124.
-63. 1904. Über eine Triniphrus - Art von Ceylon. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 21: 125-131.
-1905-1909
-64. 1905. Die Oligochaeten der deutschen Tief-See Expedition. Deutsche Südpolar Expedition, Ergebnisse 3: 133-166.
+63. 1904. Über eine Triniphrus - Art von Ceylon. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 21: 125-131.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1905-1909</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>64. 1905. Die Oligochaeten der deutschen Tief-See Expedition. Deutsche Südpolar Expedition, Ergebnisse 3: 133-166.
 65. 1905. Catalogo de los Oligoquetos del territorio chileno-magallanico i descripción de especies nuevas. Revista Chilena de Historia Natural, Santiago de Chili 8: 262-322.
 66. 1905. Die Oligochäten des Baikal-Sees. Wissenschaftliche Ergebnisse einer zoologischen Expedition nach dem Baikal-See unter Leitung von Alexis Korotneff i D.J., 1900-1902. Erste Leifarung. Kiew und Berlin: R. Friedländer und Sohn, 69 pp.
 67. 1905. Zur Kenntnis der Naididen. (Paraguay Fauna). Zoologica, Stuttgart 17(1); Heft 44; 1905: 350-361.
@@ -607,9 +760,43 @@
 87. 1909. On a new Megascolex from Ceylon. Spolia Zeylanica, Colombo 6: 96-101, 4 diagrams.
 88. 1909. Oligochaeta. In: Die Süsswasserfauna Deutschlands, Hrsg. V. Brauer. Jena: G. Fischer 13: 1-66.
 89. 1909. Oligochaeta für 1901, 1902 und 1903. Archiv für Naturgeschichte, Berlin 71(2): 1-44.
-90. 1909. Oligochaeta für 1904, 1905 und 1906. Archiv für Naturgeschichte, Berlin 73(2): 1-56.
-1910-1914
-91. 1910. Die Oligochäten fauna der vorderindisch-ceylonischen Region. Abdruck Verhandelingen der Naturwissenschaftlichen Vereins zu Hamburg 19(5): 1-108, 1 Taf.
+90. 1909. Oligochaeta für 1904, 1905 und 1906. Archiv für Naturgeschichte, Berlin 73(2): 1-56.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1910-1914</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>91. 1910. Die Oligochäten fauna der vorderindisch-ceylonischen Region. Abdruck Verhandelingen der Naturwissenschaftlichen Vereins zu Hamburg 19(5): 1-108, 1 Taf.
 92. 1910. Oligochäten von verschliedenen Gebieten. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 27(2): 47-169, 1 pl.
 93. 1910. Die Oligochäten des inneren Ostafrikas und ihre geographischen Beziehungen. Wissenschaftliche Ergebnisse des Deutschen Zentral-Afrika Expedition 1907-8, Leipzig 3: 1-90 [Leipzig: Klinkhardt &amp; Biermann].
 94. 1910. Oligochaeta. In: Sjöstedts Kilimandjaro-Meru Expedition, Stockholm 22(1): 1-10, 1 pl.
@@ -638,18 +825,86 @@
 117. 1914. Oligochaeta. In: Beiträge zur Kenntnis der Land - u. Süsswasserfauna D.-Südwestafrikas. (Hrsg. Von W. Michaelsen, Lief 1: 137-182, 4 Taf.) Hamburg: L. Friederichsen &amp; Co.
 118. 1914. Ein neuer Regenwurm aus Griechenland. Verhandlungen der Zoologisch-Botanischen Gesellschaft in Wien 64: 8-9.
 119. 1914. Die Oligochaeten des Süsswassers gesammelt von der deutschen Südpolar-expedition. Deutsche Südpolar-expedition 1901-1903. Zoologie 8, 16(1), 95 p.
-120. 1914. Oligochäten vom tropischen Afrika. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 31(2): 81-127, 1 pl.
-1915-1919
-121. 1915. Vers. II Oligochètes. In: Résultats scientifiques, voyage de Ch. Alluaud et R. Jeannel en Afrique orientale, 1911-1212, Paris, pp. 23–42, 2 pls.
+120. 1914. Oligochäten vom tropischen Afrika. Mitteilungen aus dem Naturhistorischen Museum in Hamburg 31(2): 81-127, 1 pl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1915-1919</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>121. 1915. Vers. II Oligochètes. In: Résultats scientifiques, voyage de Ch. Alluaud et R. Jeannel en Afrique orientale, 1911-1212, Paris, pp. 23–42, 2 pls.
 122. 1915. Zentralafrikanische Oligochäten. Wissenschaftliche Ergebnisse der Zweiten Deutschen Zentral-Afrika-Expedition 1910-1911, Leipzig Teil 1, Zoologie 8, 1(1): 185-317, 14-18 pls.
 123. 1916. Oligochaeten, Ginsberger naturgeschichte der Scoglien Süddalmatiens. 9. Denkschriften Akademie der Wissenschaften, Wien 92: 335.
 124. 1916. Oligochaeten aus dem Naturhistorischen Reichsmuseum zu Stockholm. Arkiv för Zoologi, Stockholm 10(1-2): 1-21.
 125. 1916. Ein eigenthümlicher neuer Enchytraeidae der Gattung Propappus aus der Niederelbe. Verhandelingen des Vereins für Naturwissenschaftliche Unterhaltung zu Hamburg 3(23): 51-55.
 126. 1916. Results of Dr. E. Mjöberg's Swedish Scientific Expedition to Australia 1910-1913. XIII. Oligochäten. Kungliga Svenska Vetenskapsakademiens Handlingar, Stockholm 52(13): 1-74, 1 pl.
 127. 1918. Die Lumbriciden, mit besonderer Berücksichtigung der Bisher als Familie Glossoscolecidae zusammengefassten Unterfamilien. Zoologische Jahrbücher, Abteilung für Systematik, Jena 41: 1-398, 1-2 pls.
-128. 1919. Über die Beziehungen der Hirudineen zu den Oligochäten. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, Hamburg 36: 131-153.
-1920-1924
-129. 1921. Zur Stammgeschichte und Systematik der Oligochäten, insbesondere der Lumbriculiden. Archiv für Naturgeschichte, Berlin 86(8): 130-141.
+128. 1919. Über die Beziehungen der Hirudineen zu den Oligochäten. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, Hamburg 36: 131-153.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1920-1924</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>129. 1921. Zur Stammgeschichte und Systematik der Oligochäten, insbesondere der Lumbriculiden. Archiv für Naturgeschichte, Berlin 86(8): 130-141.
 130. 1921. Neue und wenig bekannte Oligochäten aus skandinavischen Sammlungen. Arkiv för Zoologi, Stockholm 13(9): 1-25.
 131. 1921. Oligochaeten von Juan Fernandez und der Oster Insel. In: Uppsala: The Natural History of Juan Fernandez and Easter Island. (ed. C. Skottsberg) 3: 31-32.
 132. 1922. Sammlungen der Schwedischen Elgon-Expedition im Jahre, 1920. II. Oligochäten. Arkiv för Zoologi, Stockholm 14(6): 1-19.
@@ -663,9 +918,43 @@
 140. 1923. Ein Süsswasser-Höhlenoligochäten aus Bulgarien. Mitteilungen aus dem Staatsinstitut und Zoologischen Museum in Hamburg 41: 85-91.
 141. 1924. Oligochäten von Hollandisch-Neuguinea. Nova Guinea Leiden, 's-Gravenhage 15 Zoology 1: 18-27, 6 text figs.
 142. 1924. Oligochäten von Neuseeland und den Auckland - Campbell - Inseln, Nebst einigen anderen Pacifischen Formen. Videnskabelige Meddelelser fra Dansk Naturhistorisk Forening i København 75: 197-240, 8 text figs.
-143. 1924. Oligochäten von Niederlandischen-Indien. Treubia, Buitenzorg 5: 397-401.
-1925-1929
-144. 1925. Regenwürmer aus dem nordlichen und ostlichen Spanien. Senckenbergiana, Frankfurt-a-Main 7:186-195.
+143. 1924. Oligochäten von Niederlandischen-Indien. Treubia, Buitenzorg 5: 397-401.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1925-1929</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>144. 1925. Regenwürmer aus dem nordlichen und ostlichen Spanien. Senckenbergiana, Frankfurt-a-Main 7:186-195.
 145. 1926. Zur Kenntnis einhemischer und ausländischer Oligochäten. Zoologische Jahrbücher, Abteilung für Systematik, Jena 51: 255-328, 10 text figs.
 146. 1926. Oligochaeten aus dem Gebiet der Wolga und der Kama. Arbeiten des Biologischen Unteren-Wolgagau-Station, Saratow 9: 1-11.
 147. 1926. Pelodrilus bureschi, ein Süsswasser-Höhlenoligochät aus Bulgarien. Travaux de la Société Bulgare des Sciences Naturelles, Sofia 12: 57-66, 3 figs.
@@ -687,9 +976,43 @@
 163. 1928. Miscellanea oligochaetologica. Arkiv för Zoologi, Stockholm 20(A2): 1-15, 3 figs.
 164. 1928. Die Oligochäten Borneos. Arkiv för Zoologi, Stockholm 20(A3): 1-60, 15 figs.
 165. 1929. Oligochäten der Kamtschatka-Expedition 1908-1909. Annuaire du Musée Zoologique de l'Académie Impériale des Sciences, Leningrad 30: 315-329.
-166. 1929. Zur Stammesgeschichte der Oligochäten. Zeitschrift für Wissenschaftliche Zoologie, Leipzig 134: 693-716, 1 fig.
-1930-1934
-167. 1930. Ein Schlangenähnlicher Regenwurm aus Bergwäldern der Insel Luzon. Philippine Journal of Science, Manila 41: 273-282, 1 pl.
+166. 1929. Zur Stammesgeschichte der Oligochäten. Zeitschrift für Wissenschaftliche Zoologie, Leipzig 134: 693-716, 1 fig.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1930-1934</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>167. 1930. Ein Schlangenähnlicher Regenwurm aus Bergwäldern der Insel Luzon. Philippine Journal of Science, Manila 41: 273-282, 1 pl.
 168. 1930. Diagnosen einiger neuer Oligochäten aus Sumatra. Bulletin du Musée d'Histoire Naturelle de Belgique 6(2): 1-6, 4 figs.
 169. 1930. Die Oligochaeten. Résultats Scientifiques du Voyage aux Indes Orientales Néerlandaises de LL.AA.RR. Le Prince et la Princesse Léopold de Belgique. Bulletin du Musée d'Histoire Naturelle de Belgique (Hors-série) 2(5): 1-26, 12 figs.
 170. 1930. Michaelsen, W., and Verescagin, G. Oligochaeten aus dem Selenga-Gebiete des Baikalsees. Travaux de la Commission pour l'Étude du Lac Bajkal, Petrograd 3: 213-226.
@@ -712,9 +1035,43 @@
 187. 1934. Oligochaeta from Sarawak. Quarterly Journal of Microscopical Science, London (n.s.) 77: 1-49, 18 figs., 1 pl.
 188. 1934. Ein neuer Strand-Enchyträide von Helgoland. Zoologischer Anzeiger, Leipzig 108: 135-141, 5 figs.
 189. 1934. Oligochäten von Französisch-Indochina. Archives de Zoologie Expérimentale et Générale, Paris 76: 493-546, 28 figs.
-190. 1934. Opistopore Oligochäten des königlichen natur-historischen Museums von Belgien. Bulletin du Museum d'Histoire Naturelle de Belgique 10(25): 1-29, 17 figs.
-1935-1938
-191. 1935. Oligochaeten aus Peru. Capita Zoologica, 's-Gravenhage 6(2): 1-12, 6 figs.
+190. 1934. Opistopore Oligochäten des königlichen natur-historischen Museums von Belgien. Bulletin du Museum d'Histoire Naturelle de Belgique 10(25): 1-29, 17 figs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Michaelsen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Wilhelm Michaelsen</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1935-1938</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>191. 1935. Oligochaeten aus Peru. Capita Zoologica, 's-Gravenhage 6(2): 1-12, 6 figs.
 192. 1935. Oligochaeta from Christmas Island, South of Java. Annals or Magazine of Natural History, London 10(15): 100-108.
 193. 1935. Meebesstrand-Enchyträiden des südlichen Atlantischen Ozeans. Scientific Researches of the Norwegian Antarctic Expedition, Oslo 1(14): 1-7, 1 fig.
 194. 1935. Die Opisthoporen Oligochäten Westindiens. Mitteilungen aus dem Zoologischen Museum in Hamburg 45: 51-64, 8 figs.
